--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,24 @@
     <sheet name="structure_name" sheetId="5" r:id="rId5"/>
     <sheet name="Return_wall_data" sheetId="6" r:id="rId6"/>
     <sheet name="Return_wall_data_MKS" sheetId="7" r:id="rId7"/>
-    <sheet name="Wing_Wall_Data" sheetId="8" r:id="rId8"/>
-    <sheet name="Foundation_Pressure_Calcualtion" sheetId="9" r:id="rId9"/>
-    <sheet name="Structural_Design_Parameter" sheetId="10" r:id="rId10"/>
-    <sheet name="Flexure_Design" sheetId="11" r:id="rId11"/>
-    <sheet name="Regulator_plan" sheetId="12" r:id="rId12"/>
-    <sheet name="reinforcement_data" sheetId="13" r:id="rId13"/>
-    <sheet name="reinforcement_design_result" sheetId="14" r:id="rId14"/>
+    <sheet name="Counter_Fort" sheetId="15" r:id="rId8"/>
+    <sheet name="Wing_Wall_Data" sheetId="8" r:id="rId9"/>
+    <sheet name="Foundation_Pressure_Calcualtion" sheetId="9" r:id="rId10"/>
+    <sheet name="Structural_Design_Parameter" sheetId="10" r:id="rId11"/>
+    <sheet name="Flexure_Design" sheetId="11" r:id="rId12"/>
+    <sheet name="Regulator_plan" sheetId="12" r:id="rId13"/>
+    <sheet name="reinforcement_data" sheetId="13" r:id="rId14"/>
+    <sheet name="reinforcement_design_result" sheetId="14" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">Regulator_plan!$A$1:$E$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">Regulator_plan!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="303">
   <si>
     <t>parameters</t>
   </si>
@@ -929,6 +930,21 @@
   </si>
   <si>
     <t>Top of Wing Wall</t>
+  </si>
+  <si>
+    <t>Height of Counterfort</t>
+  </si>
+  <si>
+    <t>Spacings of Counter Fort as Fraction of Height</t>
+  </si>
+  <si>
+    <t>CF_s</t>
+  </si>
+  <si>
+    <t>CF_w</t>
+  </si>
+  <si>
+    <t>Width of Counter Fort as Fraction of Height</t>
   </si>
 </sst>
 </file>
@@ -1386,6 +1402,235 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>18.04</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-4.92</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-4</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <f>C3+C4</f>
+        <v>-8.92</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <f>C2-C5</f>
+        <v>26.96</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3">
+        <v>120</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3">
+        <f>C6*C7</f>
+        <v>3235.2000000000003</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20.888999999999999</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="3">
+        <f>C8/C9</f>
+        <v>154.87577193738332</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <f>C10/C11</f>
+        <v>15.803650197692175</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-12.17</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-3.7749999999999999</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="3">
+        <f>C15-C14</f>
+        <v>8.3949999999999996</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -1681,7 +1926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -1994,12 +2239,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView view="pageBreakPreview" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2472,7 +2717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
@@ -4061,7 +4306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
@@ -7319,8 +7564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7560,6 +7805,7 @@
   <cols>
     <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="39" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7741,6 +7987,228 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -7936,233 +8404,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="42.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3">
-        <v>18.04</v>
-      </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-4.92</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-4</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
-        <f>C3+C4</f>
-        <v>-8.92</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <f>C2-C5</f>
-        <v>26.96</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="3">
-        <v>120</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="3">
-        <f>C6*C7</f>
-        <v>3235.2000000000003</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="3">
-        <v>20.888999999999999</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="3">
-        <f>C8/C9</f>
-        <v>154.87577193738332</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
-        <f>C10/C11</f>
-        <v>15.803650197692175</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-12.17</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="3">
-        <v>-3.7749999999999999</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="3">
-        <f>C15-C14</f>
-        <v>8.3949999999999996</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="306">
   <si>
     <t>parameters</t>
   </si>
@@ -945,6 +945,15 @@
   </si>
   <si>
     <t>Width of Counter Fort as Fraction of Height</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>kpa</t>
+  </si>
+  <si>
+    <t>Safe Bearing Capacity of Soil</t>
   </si>
 </sst>
 </file>
@@ -7564,7 +7573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
+    <sheetView zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7592,8 +7601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7988,10 +7997,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8201,6 +8210,20 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="1">
+        <v>200</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,22 @@
     <sheet name="Counter_Fort" sheetId="15" r:id="rId8"/>
     <sheet name="Wing_Wall_Data" sheetId="8" r:id="rId9"/>
     <sheet name="Foundation_Pressure_Calcualtion" sheetId="9" r:id="rId10"/>
-    <sheet name="Structural_Design_Parameter" sheetId="10" r:id="rId11"/>
-    <sheet name="Flexure_Design" sheetId="11" r:id="rId12"/>
-    <sheet name="Regulator_plan" sheetId="12" r:id="rId13"/>
-    <sheet name="reinforcement_data" sheetId="13" r:id="rId14"/>
-    <sheet name="reinforcement_design_result" sheetId="14" r:id="rId15"/>
+    <sheet name="granualr_column_settlement" sheetId="16" r:id="rId11"/>
+    <sheet name="Structural_Design_Parameter" sheetId="10" r:id="rId12"/>
+    <sheet name="Flexure_Design" sheetId="11" r:id="rId13"/>
+    <sheet name="Regulator_plan" sheetId="12" r:id="rId14"/>
+    <sheet name="reinforcement_data" sheetId="13" r:id="rId15"/>
+    <sheet name="reinforcement_design_result" sheetId="14" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">Regulator_plan!$A$1:$E$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">Regulator_plan!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="344">
   <si>
     <t>parameters</t>
   </si>
@@ -954,6 +955,120 @@
   </si>
   <si>
     <t>Safe Bearing Capacity of Soil</t>
+  </si>
+  <si>
+    <t>Young's modulus for Soil</t>
+  </si>
+  <si>
+    <t>neu_s</t>
+  </si>
+  <si>
+    <t>poisson's ratio of soil</t>
+  </si>
+  <si>
+    <t>gamma_sub_s</t>
+  </si>
+  <si>
+    <t>kn/cum</t>
+  </si>
+  <si>
+    <t>del_sigma_sub_z</t>
+  </si>
+  <si>
+    <t>thickness of clay layer</t>
+  </si>
+  <si>
+    <t>additional effective stress due to structure</t>
+  </si>
+  <si>
+    <t>unit weight of clay soil layer</t>
+  </si>
+  <si>
+    <t>a_s</t>
+  </si>
+  <si>
+    <t>area replacement ratio</t>
+  </si>
+  <si>
+    <t>Young's modulus for grannular column</t>
+  </si>
+  <si>
+    <t>gamma_sub_d</t>
+  </si>
+  <si>
+    <t>Dry unit weight of stone column</t>
+  </si>
+  <si>
+    <t>G_s</t>
+  </si>
+  <si>
+    <t>P_200</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Specific Gravity of Grannular Column</t>
+  </si>
+  <si>
+    <t>k_sub_v</t>
+  </si>
+  <si>
+    <t>k_sub_r</t>
+  </si>
+  <si>
+    <t>coeffeicient of permeability in vertical direction</t>
+  </si>
+  <si>
+    <t>coeffeicient of permeability in radial direction</t>
+  </si>
+  <si>
+    <t>m/sec</t>
+  </si>
+  <si>
+    <t>d_sub_e</t>
+  </si>
+  <si>
+    <t>Equivalent Diameter of Unit Cell</t>
+  </si>
+  <si>
+    <t>d_sub_c</t>
+  </si>
+  <si>
+    <t>diameter of grannular column</t>
+  </si>
+  <si>
+    <t>Percent of Clay Particle in grannular column</t>
+  </si>
+  <si>
+    <t>Sieve size in mm for which 10% material is finer in grannular column</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>Finishing year for settlement calcualtion</t>
+  </si>
+  <si>
+    <t>Settlement Calcualtion Interval</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>starting day of settlement calculation</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1117,6 +1232,9 @@
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1413,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,10 +1758,427 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1100</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="21">
+        <v>15</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1.1599999999999999E-9</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" s="21">
+        <v>3.4700000000000002E-9</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="21">
+        <v>32.4</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="21">
+        <v>5</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="21">
+        <v>21376</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="21">
+        <v>15.7</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="21">
+        <v>20</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3">
+        <v>120</v>
+      </c>
+      <c r="D20" s="26">
+        <f>1.16/10^9</f>
+        <v>1.1599999999999999E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3235.2000000000003</v>
+      </c>
+      <c r="D21" s="26">
+        <f>3.47/10^9</f>
+        <v>3.4700000000000002E-9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20.888999999999999</v>
+      </c>
+      <c r="D22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="3">
+        <v>154.87577193738332</v>
+      </c>
+      <c r="D23" s="26"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <v>15.803650197692175</v>
+      </c>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3">
+        <v>15</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-12.17</v>
+      </c>
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-3.7749999999999999</v>
+      </c>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="3">
+        <v>8.3949999999999996</v>
+      </c>
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D30" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="B16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1935,11 +2470,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="O4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -2248,11 +2783,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2726,11 +3261,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="D21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -4315,11 +4850,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -7601,7 +8136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -8000,7 +8535,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
@@ -1760,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1998,7 +1998,7 @@
         <v>340</v>
       </c>
       <c r="C17" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>338</v>
@@ -2012,7 +2012,7 @@
         <v>341</v>
       </c>
       <c r="C18" s="21">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>339</v>
@@ -2026,7 +2026,7 @@
         <v>341</v>
       </c>
       <c r="C19" s="21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>343</v>

--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
@@ -1760,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,25 @@
     <sheet name="Return_wall_data" sheetId="6" r:id="rId6"/>
     <sheet name="Return_wall_data_MKS" sheetId="7" r:id="rId7"/>
     <sheet name="Counter_Fort" sheetId="15" r:id="rId8"/>
-    <sheet name="Wing_Wall_Data" sheetId="8" r:id="rId9"/>
-    <sheet name="Foundation_Pressure_Calcualtion" sheetId="9" r:id="rId10"/>
-    <sheet name="granualr_column_settlement" sheetId="16" r:id="rId11"/>
-    <sheet name="Structural_Design_Parameter" sheetId="10" r:id="rId12"/>
-    <sheet name="Flexure_Design" sheetId="11" r:id="rId13"/>
-    <sheet name="Regulator_plan" sheetId="12" r:id="rId14"/>
-    <sheet name="reinforcement_data" sheetId="13" r:id="rId15"/>
-    <sheet name="reinforcement_design_result" sheetId="14" r:id="rId16"/>
+    <sheet name="Counter_Fort_Backup" sheetId="17" r:id="rId9"/>
+    <sheet name="Wing_Wall_Data" sheetId="8" r:id="rId10"/>
+    <sheet name="Foundation_Pressure_Calcualtion" sheetId="9" r:id="rId11"/>
+    <sheet name="granualr_column_settlement" sheetId="16" r:id="rId12"/>
+    <sheet name="Structural_Design_Parameter" sheetId="10" r:id="rId13"/>
+    <sheet name="Flexure_Design" sheetId="11" r:id="rId14"/>
+    <sheet name="Regulator_plan" sheetId="12" r:id="rId15"/>
+    <sheet name="reinforcement_data" sheetId="13" r:id="rId16"/>
+    <sheet name="reinforcement_design_result" sheetId="14" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">Regulator_plan!$A$1:$E$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">Regulator_plan!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="346">
   <si>
     <t>parameters</t>
   </si>
@@ -1069,6 +1070,12 @@
   </si>
   <si>
     <t>starting day of settlement calculation</t>
+  </si>
+  <si>
+    <t>Distance of Water Surface from Top</t>
+  </si>
+  <si>
+    <t>Distance of Water Surface From Bottom</t>
   </si>
 </sst>
 </file>
@@ -1529,6 +1536,204 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-8.92</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>39.36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25.62</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Return_wall_data_MKS!C10*3.28</f>
+        <v>10.036799999999999</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>15.58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <f>Return_wall_data_MKS!C12*3.28</f>
+        <v>5.5759999999999996</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -1756,11 +1961,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2173,7 +2378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2470,7 +2675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -2783,7 +2988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
@@ -3261,7 +3466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
@@ -4850,7 +5055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
@@ -8534,8 +8739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8607,7 +8812,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="1">
-        <v>0.17499999999999999</v>
+        <v>5.45E-2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>59</v>
@@ -8621,7 +8826,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="1">
-        <v>0.08</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>61</v>
@@ -8635,7 +8840,7 @@
         <v>58</v>
       </c>
       <c r="C7" s="1">
-        <v>0.54500000000000004</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>63</v>
@@ -8705,9 +8910,11 @@
         <v>55</v>
       </c>
       <c r="C12" s="1">
-        <v>3.06</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -8717,9 +8924,11 @@
         <v>55</v>
       </c>
       <c r="C13" s="1">
-        <v>1.49</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -8729,7 +8938,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="1">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -8741,7 +8950,7 @@
         <v>58</v>
       </c>
       <c r="C15" s="1">
-        <v>0.49</v>
+        <v>0.33333000000000002</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>75</v>
@@ -8768,20 +8977,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="39" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8795,168 +9006,208 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1">
-        <v>-8.92</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>297</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1">
-        <v>16.7</v>
+        <v>5.5</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1">
-        <v>2.67</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
-        <v>2.67</v>
+        <v>0.08</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1">
-        <v>39.36</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>25.62</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1">
-        <f>Return_wall_data_MKS!C10*3.28</f>
-        <v>10.036799999999999</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>15.58</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1">
-        <f>Return_wall_data_MKS!C12*3.28</f>
-        <v>5.5759999999999996</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C15" s="1">
         <v>0.49</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="1">
+        <v>200</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
@@ -8740,7 +8740,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8812,7 +8812,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="1">
-        <v>5.45E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>59</v>
@@ -8826,7 +8826,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="1">
-        <v>9.0899999999999995E-2</v>
+        <v>0.107</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>61</v>
@@ -8840,7 +8840,7 @@
         <v>58</v>
       </c>
       <c r="C7" s="1">
-        <v>0.32700000000000001</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>63</v>
@@ -8854,7 +8854,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>65</v>
@@ -8896,7 +8896,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="1">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>298</v>
@@ -8910,7 +8910,7 @@
         <v>55</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>344</v>
@@ -8924,7 +8924,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="1">
-        <v>5.5</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>345</v>

--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="349">
   <si>
     <t>parameters</t>
   </si>
@@ -1076,6 +1076,15 @@
   </si>
   <si>
     <t>Distance of Water Surface From Bottom</t>
+  </si>
+  <si>
+    <t>Counter_Fort_Return_Wall</t>
+  </si>
+  <si>
+    <t>CFRW_H</t>
+  </si>
+  <si>
+    <t>CFRW_R1</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1177,11 +1186,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1242,6 +1260,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2382,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2679,7 +2706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="O4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -3468,10 +3495,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5043,6 +5070,50 @@
       <c r="M38" s="20" t="s">
         <v>228</v>
       </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" s="28">
+        <v>0</v>
+      </c>
+      <c r="F39" s="28">
+        <v>0</v>
+      </c>
+      <c r="G39" s="28">
+        <v>0</v>
+      </c>
+      <c r="H39" s="28">
+        <v>21</v>
+      </c>
+      <c r="I39" s="28">
+        <v>415</v>
+      </c>
+      <c r="J39" s="28">
+        <v>1000</v>
+      </c>
+      <c r="K39" s="28">
+        <v>600</v>
+      </c>
+      <c r="L39" s="28">
+        <v>75</v>
+      </c>
+      <c r="M39" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C44" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -8739,7 +8810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" tabRatio="637" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -3019,8 +3019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="205" zoomScaleNormal="115" zoomScaleSheetLayoutView="205" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="220" zoomScaleNormal="115" zoomScaleSheetLayoutView="220" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3053,7 +3053,7 @@
         <v>163</v>
       </c>
       <c r="C2" s="3">
-        <v>-2.4</v>
+        <v>-2.7</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>164</v>
@@ -3087,7 +3087,7 @@
         <v>163</v>
       </c>
       <c r="C4" s="6">
-        <v>-2.5499999999999998</v>
+        <v>-2.85</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>167</v>
@@ -3121,7 +3121,7 @@
         <v>163</v>
       </c>
       <c r="C6" s="3">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>171</v>
@@ -3138,7 +3138,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="3">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>173</v>
@@ -3155,7 +3155,7 @@
         <v>163</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>175</v>
@@ -3376,7 +3376,7 @@
         <v>104</v>
       </c>
       <c r="C21" s="3">
-        <v>12.25</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>199</v>
@@ -3393,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>201</v>
@@ -3497,7 +3497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -7756,8 +7756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7787,7 +7787,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>10.4</v>
+        <v>13.5</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -7799,7 +7799,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>4.92</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -7811,7 +7811,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>16.7</v>
+        <v>11.6</v>
       </c>
       <c r="D4" s="3"/>
       <c r="I4" s="1"/>
@@ -7824,11 +7824,11 @@
         <v>6</v>
       </c>
       <c r="C5" s="3">
-        <v>-4.92</v>
+        <v>-6.88</v>
       </c>
       <c r="D5" s="3">
-        <f>C4-C11</f>
-        <v>21.619999999999997</v>
+        <f>C4-C11+4</f>
+        <v>20.52</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -7840,7 +7840,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>-4.5919999999999996</v>
+        <v>-4.92</v>
       </c>
       <c r="D6" s="3"/>
       <c r="I6" s="1"/>
@@ -7853,7 +7853,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>18.04</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D7" s="3"/>
       <c r="I7" s="1"/>
@@ -7957,7 +7957,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="3">
-        <v>15</v>
+        <v>27.55</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -7969,7 +7969,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="3">
-        <v>18</v>
+        <v>31.48</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -8029,7 +8029,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="3">
-        <v>34</v>
+        <v>19.68</v>
       </c>
       <c r="D22" s="3"/>
     </row>
@@ -8075,7 +8075,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="3">
-        <v>17.876000000000001</v>
+        <v>20.82</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -8145,7 +8145,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="6">
-        <v>17.04</v>
+        <v>4</v>
       </c>
       <c r="D32" s="3"/>
     </row>

--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Khejurdangi_Input.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="377">
   <si>
     <t>parameters</t>
   </si>
@@ -731,9 +731,6 @@
   </si>
   <si>
     <t>Wa</t>
-  </si>
-  <si>
-    <t>width of Abutment at Appron Level</t>
   </si>
   <si>
     <t>Wp</t>
@@ -3101,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="220" zoomScaleNormal="115" zoomScaleSheetLayoutView="220" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="220" zoomScaleNormal="115" zoomScaleSheetLayoutView="220" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3307,8 +3304,8 @@
       <c r="C12" s="2">
         <v>0.45</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>231</v>
+      <c r="D12" s="2">
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -3316,7 +3313,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>116</v>
@@ -3325,7 +3322,7 @@
         <v>0.35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E13" s="1">
         <v>11</v>
@@ -3333,7 +3330,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>116</v>
@@ -3342,7 +3339,7 @@
         <v>0.5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E14" s="1">
         <v>12</v>
@@ -3350,7 +3347,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>116</v>
@@ -3359,7 +3356,7 @@
         <v>0.6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E15" s="1">
         <v>13</v>
@@ -3367,7 +3364,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>116</v>
@@ -3376,7 +3373,7 @@
         <v>5.5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E16" s="1">
         <v>14</v>
@@ -3384,7 +3381,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>226</v>
@@ -3393,7 +3390,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E17" s="1">
         <v>15</v>
@@ -3401,7 +3398,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>226</v>
@@ -3410,7 +3407,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E18" s="1">
         <v>16</v>
@@ -3418,7 +3415,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>116</v>
@@ -3427,7 +3424,7 @@
         <v>2.15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E19" s="1">
         <v>17</v>
@@ -3435,7 +3432,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>116</v>
@@ -3452,7 +3449,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>116</v>
@@ -3461,7 +3458,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E21" s="1">
         <v>19</v>
@@ -3469,7 +3466,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
@@ -3478,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E22" s="1">
         <v>20</v>
@@ -3486,7 +3483,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>116</v>
@@ -3495,7 +3492,7 @@
         <v>0.79</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E23" s="1">
         <v>21</v>
@@ -3503,7 +3500,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>116</v>
@@ -3512,7 +3509,7 @@
         <v>2.54</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E24" s="1">
         <v>22</v>
@@ -3520,7 +3517,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>226</v>
@@ -3529,7 +3526,7 @@
         <v>2.98</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E25" s="1">
         <v>23</v>
@@ -3537,7 +3534,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>116</v>
@@ -3546,7 +3543,7 @@
         <v>0.75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E26" s="1">
         <v>24</v>
@@ -3554,7 +3551,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>116</v>
@@ -3563,7 +3560,7 @@
         <v>0.75</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E27" s="1">
         <v>25</v>
@@ -3571,7 +3568,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>142</v>
@@ -3580,7 +3577,7 @@
         <v>2370</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E28" s="1">
         <v>26</v>
@@ -3588,7 +3585,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>142</v>
@@ -3597,7 +3594,7 @@
         <v>790</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E29" s="1">
         <v>27</v>
@@ -3605,7 +3602,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>142</v>
@@ -3614,7 +3611,7 @@
         <v>514</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E30" s="1">
         <v>28</v>
@@ -3622,16 +3619,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="C31" s="1">
         <v>8</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E31" s="1">
         <v>29</v>
@@ -3639,7 +3636,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>142</v>
@@ -3648,7 +3645,7 @@
         <v>158</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E32" s="1">
         <v>30</v>
@@ -3656,7 +3653,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>142</v>
@@ -3665,7 +3662,7 @@
         <v>790</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E33" s="1">
         <v>31</v>
@@ -3673,7 +3670,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>142</v>
@@ -3682,7 +3679,7 @@
         <v>790</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E34" s="1">
         <v>32</v>
@@ -3690,16 +3687,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C35" s="1">
         <v>9</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E35" s="1">
         <v>33</v>
@@ -3707,7 +3704,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>142</v>
@@ -3716,7 +3713,7 @@
         <v>3230</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E36" s="1">
         <v>34</v>
@@ -3724,7 +3721,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>142</v>
@@ -3733,7 +3730,7 @@
         <v>102</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E37" s="1">
         <v>35</v>
@@ -3741,7 +3738,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>142</v>
@@ -3750,7 +3747,7 @@
         <v>508</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E38" s="1">
         <v>36</v>
@@ -3758,7 +3755,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>142</v>
@@ -3767,7 +3764,7 @@
         <v>1016</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E39" s="1">
         <v>37</v>
@@ -3775,16 +3772,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C40" s="1">
         <v>16</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E40" s="1">
         <v>38</v>
@@ -3792,7 +3789,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>142</v>
@@ -3801,7 +3798,7 @@
         <v>6721</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E41" s="1">
         <v>39</v>
@@ -3835,57 +3832,57 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>151</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="16" t="s">
         <v>304</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>305</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -3912,21 +3909,21 @@
         <v>1.5</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -3953,21 +3950,21 @@
         <v>1.5</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -3994,21 +3991,21 @@
         <v>3.5</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -4035,21 +4032,21 @@
         <v>3.5</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="D6" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -4076,21 +4073,21 @@
         <v>3.5</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -4117,21 +4114,21 @@
         <v>3.5</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -4158,21 +4155,21 @@
         <v>3.5</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -4199,21 +4196,21 @@
         <v>3.5</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="D10" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -4240,21 +4237,21 @@
         <v>3.5</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -4281,21 +4278,21 @@
         <v>3.5</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -4322,21 +4319,21 @@
         <v>3.5</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -4363,21 +4360,21 @@
         <v>3.5</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -4404,21 +4401,21 @@
         <v>3.5</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -4445,21 +4442,21 @@
         <v>3.5</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -4486,21 +4483,21 @@
         <v>3.5</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -4527,21 +4524,21 @@
         <v>3.5</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>330</v>
-      </c>
       <c r="D18" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E18" s="18">
         <v>0</v>
@@ -4568,21 +4565,21 @@
         <v>3.5</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>329</v>
-      </c>
       <c r="C19" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E19" s="18">
         <v>0</v>
@@ -4609,21 +4606,21 @@
         <v>3.5</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>329</v>
-      </c>
       <c r="C20" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E20" s="18">
         <v>0</v>
@@ -4650,21 +4647,21 @@
         <v>3.5</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>329</v>
-      </c>
       <c r="C21" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E21" s="18">
         <v>0</v>
@@ -4691,21 +4688,21 @@
         <v>3.5</v>
       </c>
       <c r="M21" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -4732,21 +4729,21 @@
         <v>3.5</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -4773,21 +4770,21 @@
         <v>3.5</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -4814,21 +4811,21 @@
         <v>3.5</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>340</v>
-      </c>
       <c r="D25" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E25" s="18">
         <v>0</v>
@@ -4855,21 +4852,21 @@
         <v>3.5</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -4896,21 +4893,21 @@
         <v>3.5</v>
       </c>
       <c r="M26" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -4937,21 +4934,21 @@
         <v>3.5</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -4978,21 +4975,21 @@
         <v>3.5</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -5019,21 +5016,21 @@
         <v>3.5</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -5060,21 +5057,21 @@
         <v>3.5</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -5101,21 +5098,21 @@
         <v>3.5</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="D32" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -5142,21 +5139,21 @@
         <v>3.5</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -5183,21 +5180,21 @@
         <v>3.5</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -5224,21 +5221,21 @@
         <v>3.5</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -5265,21 +5262,21 @@
         <v>3.5</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -5306,21 +5303,21 @@
         <v>3.5</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -5347,21 +5344,21 @@
         <v>3.5</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -5388,21 +5385,21 @@
         <v>3.5</v>
       </c>
       <c r="M38" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="C39" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>358</v>
-      </c>
       <c r="D39" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E39" s="27">
         <v>0</v>
@@ -5429,7 +5426,7 @@
         <v>75</v>
       </c>
       <c r="M39" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -5472,84 +5469,84 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>151</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O1" t="s">
         <v>300</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>360</v>
       </c>
-      <c r="O1" t="s">
-        <v>301</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" t="s">
         <v>365</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>366</v>
-      </c>
-      <c r="V1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="16" t="s">
         <v>304</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>305</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -5582,13 +5579,13 @@
         <v>150</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R2" s="1">
         <v>0.20571428571428571</v>
@@ -5597,27 +5594,27 @@
         <v>3.5</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U2" s="1">
         <v>85</v>
       </c>
       <c r="V2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -5650,13 +5647,13 @@
         <v>200</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P3">
         <v>3</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R3" s="1">
         <v>0.27428571428571419</v>
@@ -5665,27 +5662,27 @@
         <v>3.5</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U3" s="1">
         <v>85</v>
       </c>
       <c r="V3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -5718,13 +5715,13 @@
         <v>400</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P4">
         <v>4</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R4" s="1">
         <v>0.41142857142857142</v>
@@ -5733,27 +5730,27 @@
         <v>3.5</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U4" s="1">
         <v>85</v>
       </c>
       <c r="V4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -5786,13 +5783,13 @@
         <v>400</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P5">
         <v>4</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R5" s="1">
         <v>0.41142857142857142</v>
@@ -5801,27 +5798,27 @@
         <v>3.5</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U5" s="1">
         <v>85</v>
       </c>
       <c r="V5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="D6" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -5854,13 +5851,13 @@
         <v>400</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P6">
         <v>4</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R6" s="1">
         <v>0.41142857142857142</v>
@@ -5869,27 +5866,27 @@
         <v>3.5</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U6" s="1">
         <v>85</v>
       </c>
       <c r="V6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -5922,13 +5919,13 @@
         <v>400</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P7">
         <v>4</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R7" s="1">
         <v>0.41142857142857142</v>
@@ -5937,27 +5934,27 @@
         <v>3.5</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U7" s="1">
         <v>85</v>
       </c>
       <c r="V7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -5990,13 +5987,13 @@
         <v>400</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P8">
         <v>4</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R8" s="1">
         <v>0.41142857142857142</v>
@@ -6005,27 +6002,27 @@
         <v>3.5</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U8" s="1">
         <v>85</v>
       </c>
       <c r="V8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -6058,13 +6055,13 @@
         <v>400</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P9">
         <v>4</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R9" s="1">
         <v>0.41142857142857142</v>
@@ -6073,27 +6070,27 @@
         <v>3.5</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U9" s="1">
         <v>85</v>
       </c>
       <c r="V9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="D10" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -6126,13 +6123,13 @@
         <v>400</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P10">
         <v>4</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R10" s="1">
         <v>0.41142857142857142</v>
@@ -6141,27 +6138,27 @@
         <v>3.5</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U10" s="1">
         <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -6194,13 +6191,13 @@
         <v>400</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P11">
         <v>4</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R11" s="1">
         <v>0.41142857142857142</v>
@@ -6209,27 +6206,27 @@
         <v>3.5</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U11" s="1">
         <v>85</v>
       </c>
       <c r="V11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -6262,13 +6259,13 @@
         <v>400</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P12">
         <v>4</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R12" s="1">
         <v>0.41142857142857142</v>
@@ -6277,27 +6274,27 @@
         <v>3.5</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U12" s="1">
         <v>85</v>
       </c>
       <c r="V12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -6330,13 +6327,13 @@
         <v>400</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P13">
         <v>4</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R13" s="1">
         <v>0.41142857142857142</v>
@@ -6345,27 +6342,27 @@
         <v>3.5</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U13" s="1">
         <v>85</v>
       </c>
       <c r="V13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -6398,13 +6395,13 @@
         <v>400</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P14">
         <v>4</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R14" s="1">
         <v>0.41142857142857142</v>
@@ -6413,27 +6410,27 @@
         <v>3.5</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U14" s="1">
         <v>85</v>
       </c>
       <c r="V14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -6466,13 +6463,13 @@
         <v>400</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P15">
         <v>4</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R15" s="1">
         <v>0.41142857142857142</v>
@@ -6481,27 +6478,27 @@
         <v>3.5</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U15" s="1">
         <v>85</v>
       </c>
       <c r="V15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -6534,13 +6531,13 @@
         <v>400</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P16">
         <v>4</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R16" s="1">
         <v>0.41142857142857142</v>
@@ -6549,27 +6546,27 @@
         <v>3.5</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U16" s="1">
         <v>85</v>
       </c>
       <c r="V16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -6602,13 +6599,13 @@
         <v>400</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P17">
         <v>4</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R17" s="1">
         <v>0.41142857142857142</v>
@@ -6617,27 +6614,27 @@
         <v>3.5</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U17" s="1">
         <v>85</v>
       </c>
       <c r="V17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="D18" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -6670,13 +6667,13 @@
         <v>375</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P18">
         <v>2</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R18" s="1">
         <v>0.41333333333333327</v>
@@ -6685,27 +6682,27 @@
         <v>9</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U18" s="1">
         <v>225</v>
       </c>
       <c r="V18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -6738,13 +6735,13 @@
         <v>375</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P19">
         <v>2</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R19" s="1">
         <v>0.372</v>
@@ -6753,27 +6750,27 @@
         <v>10</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U19" s="1">
         <v>250</v>
       </c>
       <c r="V19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -6806,13 +6803,13 @@
         <v>600</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R20" s="1">
         <v>0.372</v>
@@ -6821,27 +6818,27 @@
         <v>10</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U20" s="1">
         <v>250</v>
       </c>
       <c r="V20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -6874,13 +6871,13 @@
         <v>450</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R21" s="1">
         <v>0.372</v>
@@ -6889,27 +6886,27 @@
         <v>10</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U21" s="1">
         <v>250</v>
       </c>
       <c r="V21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -6942,13 +6939,13 @@
         <v>400</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P22">
         <v>4</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R22" s="1">
         <v>0.41142857142857142</v>
@@ -6957,27 +6954,27 @@
         <v>3.5</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U22" s="1">
         <v>85</v>
       </c>
       <c r="V22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -7010,13 +7007,13 @@
         <v>400</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P23">
         <v>4</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R23" s="1">
         <v>0.41142857142857142</v>
@@ -7025,27 +7022,27 @@
         <v>3.5</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U23" s="1">
         <v>85</v>
       </c>
       <c r="V23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -7078,13 +7075,13 @@
         <v>400</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P24">
         <v>4</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R24" s="1">
         <v>0.41142857142857142</v>
@@ -7093,27 +7090,27 @@
         <v>3.5</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U24" s="1">
         <v>85</v>
       </c>
       <c r="V24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="D25" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -7146,13 +7143,13 @@
         <v>860</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R25" s="1">
         <v>0.372</v>
@@ -7161,27 +7158,27 @@
         <v>10</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U25" s="1">
         <v>250</v>
       </c>
       <c r="V25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -7214,13 +7211,13 @@
         <v>400</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P26">
         <v>4</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R26" s="1">
         <v>0.41142857142857142</v>
@@ -7229,27 +7226,27 @@
         <v>3.5</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U26" s="1">
         <v>85</v>
       </c>
       <c r="V26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -7282,13 +7279,13 @@
         <v>400</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P27">
         <v>4</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R27" s="1">
         <v>0.41142857142857142</v>
@@ -7297,27 +7294,27 @@
         <v>3.5</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U27" s="1">
         <v>85</v>
       </c>
       <c r="V27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -7350,13 +7347,13 @@
         <v>400</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P28">
         <v>4</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R28" s="1">
         <v>0.41142857142857142</v>
@@ -7365,27 +7362,27 @@
         <v>3.5</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U28" s="1">
         <v>85</v>
       </c>
       <c r="V28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -7418,13 +7415,13 @@
         <v>400</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P29">
         <v>4</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R29" s="1">
         <v>0.41142857142857142</v>
@@ -7433,27 +7430,27 @@
         <v>3.5</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U29" s="1">
         <v>85</v>
       </c>
       <c r="V29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -7486,13 +7483,13 @@
         <v>400</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P30">
         <v>4</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R30" s="1">
         <v>0.41142857142857142</v>
@@ -7501,27 +7498,27 @@
         <v>3.5</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U30" s="1">
         <v>85</v>
       </c>
       <c r="V30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -7554,13 +7551,13 @@
         <v>400</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P31">
         <v>4</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R31" s="1">
         <v>0.41142857142857142</v>
@@ -7569,27 +7566,27 @@
         <v>3.5</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U31" s="1">
         <v>85</v>
       </c>
       <c r="V31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="D32" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -7622,13 +7619,13 @@
         <v>400</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P32">
         <v>4</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R32" s="1">
         <v>0.41142857142857142</v>
@@ -7637,27 +7634,27 @@
         <v>3.5</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U32" s="1">
         <v>85</v>
       </c>
       <c r="V32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -7690,13 +7687,13 @@
         <v>400</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P33">
         <v>4</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R33" s="1">
         <v>0.41142857142857142</v>
@@ -7705,27 +7702,27 @@
         <v>3.5</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U33" s="1">
         <v>85</v>
       </c>
       <c r="V33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -7758,13 +7755,13 @@
         <v>400</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P34">
         <v>4</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R34" s="1">
         <v>0.41142857142857142</v>
@@ -7773,27 +7770,27 @@
         <v>3.5</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U34" s="1">
         <v>85</v>
       </c>
       <c r="V34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -7826,13 +7823,13 @@
         <v>400</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P35">
         <v>4</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R35" s="1">
         <v>0.41142857142857142</v>
@@ -7841,27 +7838,27 @@
         <v>3.5</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U35" s="1">
         <v>85</v>
       </c>
       <c r="V35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -7894,13 +7891,13 @@
         <v>400</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P36">
         <v>4</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R36" s="1">
         <v>0.41142857142857142</v>
@@ -7909,27 +7906,27 @@
         <v>3.5</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U36" s="1">
         <v>85</v>
       </c>
       <c r="V36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -7962,13 +7959,13 @@
         <v>400</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P37">
         <v>4</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R37" s="1">
         <v>0.41142857142857142</v>
@@ -7977,27 +7974,27 @@
         <v>3.5</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U37" s="1">
         <v>85</v>
       </c>
       <c r="V37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -8030,13 +8027,13 @@
         <v>400</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P38">
         <v>4</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R38" s="1">
         <v>0.41142857142857142</v>
@@ -8045,13 +8042,13 @@
         <v>3.5</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U38" s="1">
         <v>85</v>
       </c>
       <c r="V38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
